--- a/Problems/data_structure_rigid_plane_frames_q1.xlsx
+++ b/Problems/data_structure_rigid_plane_frames_q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtr1230\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81774A1-07A2-4DE8-8B03-A8CC91B9B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B55D3C-357C-4C13-8EFB-6B457DD4FEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="1845" windowWidth="15465" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,8 +364,8 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -473,6 +473,9 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
+      <c r="G3" s="3">
+        <v>210</v>
+      </c>
       <c r="H3" s="2">
         <f>1*10^-2</f>
         <v>0.01</v>
@@ -483,6 +486,9 @@
       <c r="K3" s="2">
         <v>2</v>
       </c>
+      <c r="L3" s="5">
+        <v>9</v>
+      </c>
       <c r="M3">
         <f>2*10^-4</f>
         <v>2.0000000000000001E-4</v>
@@ -504,6 +510,9 @@
       <c r="F4" s="2">
         <v>-3</v>
       </c>
+      <c r="G4" s="3">
+        <v>210</v>
+      </c>
       <c r="H4" s="2">
         <f>1*10^-2</f>
         <v>0.01</v>
@@ -513,6 +522,9 @@
       </c>
       <c r="K4">
         <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>9</v>
       </c>
       <c r="M4">
         <f>2*10^-4</f>
